--- a/SHARED FOLDER/MAYOR ABRAHAM TOLENTINO -LEAVE FILE.xlsx
+++ b/SHARED FOLDER/MAYOR ABRAHAM TOLENTINO -LEAVE FILE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5D55E-B0FB-4CB4-8538-36BEDF9DF511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96577424-A6E7-4FA6-8EF3-2B63DEAEE8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mayor aug 13 -17" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,16 @@
     <sheet name="mayor FEB 18-24 2023" sheetId="10" r:id="rId10"/>
     <sheet name="mayor MARCH 1-2 2023" sheetId="11" r:id="rId11"/>
     <sheet name="mayor MARCH 10-12 2023" sheetId="12" r:id="rId12"/>
+    <sheet name="mayor APRIL 28 - MAY 1 2023" sheetId="13" r:id="rId13"/>
+    <sheet name="mayor MAY 03 - 18 2023" sheetId="14" r:id="rId14"/>
+    <sheet name="mayor JUNE 24 - 27 2023" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="147">
   <si>
     <t>Civil Service Form</t>
   </si>
@@ -462,6 +465,45 @@
   <si>
     <t>3.DATE OF FILING - 3/2/2023</t>
   </si>
+  <si>
+    <t>Abroad (Specify)  BALI, INDONESIA</t>
+  </si>
+  <si>
+    <t>3.DATE OF FILING - 3/13/2023</t>
+  </si>
+  <si>
+    <t>12 DAYS</t>
+  </si>
+  <si>
+    <t>MAY 03 - 18, 2023</t>
+  </si>
+  <si>
+    <t>12 VL</t>
+  </si>
+  <si>
+    <t>Abroad (Specify)  CAMBODIA</t>
+  </si>
+  <si>
+    <t>4 DAYS</t>
+  </si>
+  <si>
+    <t>JUNE 24 - 27, 2023</t>
+  </si>
+  <si>
+    <t>4 VL</t>
+  </si>
+  <si>
+    <t>Abroad (Specify)  NEW ZEALAND</t>
+  </si>
+  <si>
+    <t>APRIL 29 - MAY 1, 2023</t>
+  </si>
+  <si>
+    <t>3 DAYS</t>
+  </si>
+  <si>
+    <t>3 VL</t>
+  </si>
 </sst>
 </file>
 
@@ -755,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1003,6 +1045,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7556,6 +7610,5014 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240846</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361678</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B241CDF8-AEB4-46AE-B8A4-7E1AC2D127E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955346" y="287266"/>
+          <a:ext cx="730432" cy="696686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>215382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0509F3F-754C-461C-8E5B-3C53E264EA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3782289"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101116</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>256352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71AFC0DC-27B2-4E76-9C77-4071F5E65851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101116" y="4055204"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D30746-9DCE-408E-A4D3-4255B339C4D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="4240877"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>193197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31357076-928D-4656-AC63-256EE6586854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="4445904"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97130</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252366</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60014B4C-F22F-455F-B2EE-86364A58C40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97130" y="4776527"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4554814-8516-42D8-8D9B-A952FFDE4E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="4964237"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC50FE6-6F3B-4884-8C17-E205242A6707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5276156"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68E575B-A6AC-43DF-B37B-B5233D2F6589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="5485515"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA6F578-4846-411C-A183-5E261A217CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5783406"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254816</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7044186B-9B57-4B6F-883B-537A1A964595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99580" y="6100657"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100446</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>255682</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5244872A-63B9-4F53-9F35-BE5912BAF30E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100446" y="6368222"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991CF2B8-C6B4-4FCB-B578-CB467DF8C7CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3033712"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA60D522-2335-4EE0-A0D5-1AE8937C7066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3355419"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB495BF6-8583-4668-BDD8-137603E3EDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4047173"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86C8203-2988-4EC7-997C-515E894D5B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4253865"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381455</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>195944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE27BDB1-E9BA-4719-8260-40EB0373DCE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379119" y="5492591"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>172131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9598D26A-4FD8-4AC2-AF51-6092E504AF86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="5788818"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B47F518-2DF7-4F96-A3DB-646BA978E001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="6356033"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>227603</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382839</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAAB5C0-3389-4F20-AA04-5D96C771D3F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4380503" y="6558158"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641A4CB5-5AC1-435D-98D4-5C4FFEA33ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7207806"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C385D39-E48A-4B83-8DBB-3F2C849BEB55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7384732"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63221258-48A6-4F2D-89FE-ADCA05E6D8A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8340479"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518F6159-2359-45C5-A948-369E5AF51FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8533078"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>221657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3696050A-1E36-476A-85D8-35291E65E1C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3089468"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>94409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249645</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>253317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F900A0-5F92-40ED-B71B-138258396708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94409" y="3448788"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335388</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>281727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3ECC6B0-508A-4DC2-8C31-AB1B73EDB9E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46955" y="3030025"/>
+          <a:ext cx="288433" cy="261602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192647</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>279848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>206062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4A7AD1-69A7-4566-939F-1834A9B5BAD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345547" y="3289748"/>
+          <a:ext cx="288433" cy="253874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240846</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361678</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8E8D85-D723-42B7-A145-938F4AE9D0AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955346" y="287266"/>
+          <a:ext cx="730432" cy="696686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>215382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A49625D-E464-4FAE-8483-36EDF23756E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3782289"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101116</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>256352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86A9693-001C-4A61-BD36-5AFCC388A228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101116" y="4055204"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4336CC-B6D8-47FB-936C-B138D4D23CB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="4240877"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>193197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFAD1AC-F15B-4F4D-96BC-DADA7448A56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="4445904"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97130</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252366</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150CF426-CC85-4F9B-A0A5-15F3049BCA2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97130" y="4776527"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6434246C-7849-459E-BA3E-173959213D1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="4964237"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2D5E99-912E-46C8-9CD8-D62ED5278D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5276156"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6515B0-02C5-4D4E-AEAD-8B9AA470C90A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="5485515"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531C02AB-BC34-477A-8312-D212E435B99B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5783406"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254816</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FE2C57-CFE6-47FF-9B10-96B545AADF4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99580" y="6100657"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100446</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>255682</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C68EC7-5819-458A-AB09-E649FC46E1D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100446" y="6368222"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A9BB0C-3185-4BF7-A6FA-D679817D9BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3033712"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976FAB96-D80A-455D-A1B1-5BD3D9DAC7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3355419"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C932E8A-AD80-4EE5-AF8F-8E201943EE6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4047173"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02806288-CF05-43E5-95FD-2E62DF2096F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4253865"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381455</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>195944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB30C2B-5E0C-4BD4-98BA-75C204CD99DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379119" y="5492591"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>172131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298847B9-710C-4FA2-B85D-C03905DEDB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="5788818"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E081B545-C452-4ABD-AD05-6DE1BE7A375E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="6356033"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>227603</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382839</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB53458-E569-4B93-A669-DD9F3F36BADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4380503" y="6558158"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDB92DD-F080-4F56-89C0-107FB65B6F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7207806"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{933B0977-A051-4806-BA27-7F7350D89EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7384732"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1768CAC-08E2-41D7-BB13-4E04ACC6AAB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8340479"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E4F732-2E05-4FCE-901C-51911F8E9132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8533078"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>221657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24212501-1F4E-470E-9165-D1E1498A427C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3089468"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>94409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249645</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>253317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91101136-A0F2-44B1-9ADD-56D0BE2D6A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94409" y="3448788"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335388</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>281727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4ACBD1A-E2A7-4308-B64F-5FFF2850A7F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46955" y="3030025"/>
+          <a:ext cx="288433" cy="261602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192647</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>279848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>206062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BF6E5B-1E3C-4F4B-A4C5-B70FDE1AE52C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345547" y="3289748"/>
+          <a:ext cx="288433" cy="253874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336092</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>49549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D53B316-C5F4-02B2-492B-6BD88595ECF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1230924" y="9280769"/>
+          <a:ext cx="1420476" cy="801780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240846</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361678</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986E90DC-2A77-4F6F-9BF1-F30DDFA98BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955346" y="287266"/>
+          <a:ext cx="730432" cy="696686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>215382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE500058-DD82-4912-86DA-1949B182C295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3782289"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101116</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>256352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F9485B-08DF-4998-A590-D2CE77861C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101116" y="4055204"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEA6900-5598-4027-B9E5-5134C496FC04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="4240877"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>193197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12F2B4C-2FD6-4703-A19A-DCE778D7C7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="4445904"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97130</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252366</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB81620C-D85C-4D65-A7E1-DAEA609B57BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97130" y="4776527"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073A8D51-F9F0-45A5-8BEF-9863317FAAD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="4964237"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215D4EF1-28E9-427A-AACA-2B4A22430C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5276156"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A4DF3C-F0AA-481B-8B25-FC2EB7CD2C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="5485515"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A89FF2-95AF-49C8-9B8C-0C05F71840A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5783406"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254816</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EABC17-6641-483C-857F-65B4998FB0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99580" y="6100657"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100446</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>255682</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA21358A-2C8E-41BC-8160-C27CE0020BB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100446" y="6368222"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D19146-E1AE-4D61-AF4F-ABA8D01705DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3033712"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B982E8E-0003-4FA6-B591-ACBE4149685E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3355419"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0660CA99-F30B-4AC4-BBFA-4324F547B7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4047173"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E747E5-ACA3-4ED3-BF07-91FC5BFF62CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4253865"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381455</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>195944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4591AFC4-790C-4B7E-9244-C9DEBDAB9012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379119" y="5492591"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>172131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26EC29F-CE65-4057-B5AE-B02A6DFBF4D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="5788818"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9FFDFE-3DA0-4094-A860-B3323F1B7365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="6356033"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>227603</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382839</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF9468D-F418-4D98-B0BE-DA018EA293E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4380503" y="6558158"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F228A914-5CB3-4892-89AB-8996CE834492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7207806"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE91DAC-D4FA-445E-B25D-A13F9892C013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7384732"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A9BA97-977C-447E-8F5F-B1B464FFA610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8340479"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81742794-E9F9-4F1C-BDFE-BD2547CF6A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8533078"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>221657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F834C41E-99AA-41D3-96F1-044A39F42C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3089468"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>94409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249645</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>253317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4FDFC4E-8582-4D5D-92C6-3DD40F179E00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94409" y="3448788"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335388</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>281727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985FB940-AF81-4950-8884-FF7E573AC256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46955" y="3030025"/>
+          <a:ext cx="288433" cy="261602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192647</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>279848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>206062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED57ABB-27EC-4BCD-9A66-F36F6B4372C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345547" y="3289748"/>
+          <a:ext cx="288433" cy="253874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336092</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>49549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CD4948-E032-4492-8AC9-1B421EED2B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1232682" y="9228406"/>
+          <a:ext cx="1427510" cy="788103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -22952,6 +28014,2020 @@
     <mergeCell ref="H21:N21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="F9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162C15F8-E9B1-4E7D-8FBC-900D98E25D36}">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="C7" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="90"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+    </row>
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+    </row>
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+    </row>
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="88"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+    </row>
+    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="74"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="I33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="26"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="61"/>
+      <c r="H41" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="60"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="57">
+        <v>7.5</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="25"/>
+      <c r="N44" s="26"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="16"/>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="50"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="17"/>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="N53" s="26"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="E55" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="E56" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="N56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+  </mergeCells>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E0E90C-24F5-43F8-9D78-C712A3D7F5C0}">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="C7" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="90"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+    </row>
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+    </row>
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+    </row>
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="88"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+    </row>
+    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="74"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="I33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="26"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="61"/>
+      <c r="H41" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="60"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="62">
+        <v>1.75</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="57">
+        <v>8.75</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="25"/>
+      <c r="N44" s="26"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="50"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="17"/>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="N53" s="26"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="E55" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="E56" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="N56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:N22"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="B19:G19"/>
@@ -22979,12 +30055,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162C15F8-E9B1-4E7D-8FBC-900D98E25D36}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9189C1-FBC0-41AB-9794-6C6343675522}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:N19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23131,7 +30207,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="18"/>
@@ -23250,7 +30326,7 @@
       <c r="G17" s="76"/>
       <c r="H17" s="27"/>
       <c r="I17" s="72" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
@@ -23546,7 +30622,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="49" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -23569,7 +30645,7 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="64" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -23642,7 +30718,7 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="59" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -23716,10 +30792,10 @@
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="56"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="102"/>
       <c r="H43" s="58" t="s">
         <v>67</v>
       </c>
@@ -23737,11 +30813,11 @@
       <c r="B44" s="54"/>
       <c r="C44" s="56"/>
       <c r="D44" s="62">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="E44" s="63"/>
       <c r="F44" s="57">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="G44" s="57"/>
       <c r="H44" s="25"/>
@@ -23756,7 +30832,7 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="64" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
@@ -23776,7 +30852,7 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="53" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
@@ -23815,7 +30891,9 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="C49" t="s">
         <v>77</v>
       </c>
@@ -23828,8 +30906,1014 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="17"/>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="N53" s="26"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="E55" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="E56" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="N56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+  </mergeCells>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B6CD2-5F39-4702-918B-110F0A1C3AE9}">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="C7" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="90"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+    </row>
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+    </row>
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+    </row>
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="88"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+    </row>
+    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="74"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="I33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="26"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="61"/>
+      <c r="H41" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="60"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="57">
+        <v>8.75</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="25"/>
+      <c r="N44" s="26"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="16"/>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="50"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
       <c r="B50" s="16" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
         <v>79</v>
@@ -23985,11 +32069,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E0E90C-24F5-43F8-9D78-C712A3D7F5C0}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE1D0D2-710D-4467-9B3B-0AEC16937E76}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="I17" sqref="I17:N17"/>
     </sheetView>
   </sheetViews>
@@ -24256,7 +32340,7 @@
       <c r="G17" s="76"/>
       <c r="H17" s="27"/>
       <c r="I17" s="72" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
@@ -24552,7 +32636,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="49" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -24575,7 +32659,7 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="64" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -24722,9 +32806,7 @@
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="56"/>
-      <c r="D43" s="44" t="s">
-        <v>94</v>
-      </c>
+      <c r="D43" s="44"/>
       <c r="E43" s="41"/>
       <c r="F43" s="42"/>
       <c r="G43" s="43"/>
@@ -24745,7 +32827,7 @@
       <c r="B44" s="54"/>
       <c r="C44" s="56"/>
       <c r="D44" s="62">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="E44" s="63"/>
       <c r="F44" s="57">
@@ -24823,9 +32905,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
-      <c r="B49" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="B49" s="16"/>
       <c r="C49" t="s">
         <v>77</v>
       </c>
@@ -24838,7 +32918,9 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="C50" t="s">
         <v>79</v>
       </c>
@@ -24916,16 +32998,58 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:N41"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="I47:M47"/>
     <mergeCell ref="A42:C42"/>
@@ -24934,58 +33058,16 @@
     <mergeCell ref="H42:N42"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="H43:N43"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -33005,6 +41087,7 @@
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="C7:K7"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="I19:N19"/>
     <mergeCell ref="A10:C10"/>
@@ -33018,7 +41101,6 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="I17:N17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="I20:N20"/>
     <mergeCell ref="B21:G21"/>

--- a/SHARED FOLDER/MAYOR ABRAHAM TOLENTINO -LEAVE FILE.xlsx
+++ b/SHARED FOLDER/MAYOR ABRAHAM TOLENTINO -LEAVE FILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96577424-A6E7-4FA6-8EF3-2B63DEAEE8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7297EF3-8D77-40EA-A794-0BF01E4A6A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mayor aug 13 -17" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="mayor APRIL 28 - MAY 1 2023" sheetId="13" r:id="rId13"/>
     <sheet name="mayor MAY 03 - 18 2023" sheetId="14" r:id="rId14"/>
     <sheet name="mayor JUNE 24 - 27 2023" sheetId="15" r:id="rId15"/>
+    <sheet name="mayor JULY 7-9 2023" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="151">
   <si>
     <t>Civil Service Form</t>
   </si>
@@ -503,6 +504,18 @@
   </si>
   <si>
     <t>3 VL</t>
+  </si>
+  <si>
+    <t>3.DATE OF FILING - 3/27/2023</t>
+  </si>
+  <si>
+    <t>1 DAY</t>
+  </si>
+  <si>
+    <t>JULY 7-9, 2023</t>
+  </si>
+  <si>
+    <t>1VL</t>
   </si>
 </sst>
 </file>
@@ -12623,6 +12636,1642 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240846</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361678</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACAC356-9127-4BF4-8119-61DC0168B084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955346" y="287266"/>
+          <a:ext cx="730432" cy="696686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>215382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2905920-A04B-47D2-889F-87FF43FE9127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3782289"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101116</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>256352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E527EDA9-52A3-4922-BB67-ED0F8EAC5612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101116" y="4055204"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921A5D2F-C85E-4860-BA31-257AA279AE23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="4240877"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>193197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFBC584-5ACB-44EE-B17C-ED2904A0C0D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="4445904"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97130</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252366</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D94B1A-E896-4589-B651-1F4B457220A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97130" y="4776527"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DE85EB-6D63-46CF-8F9A-36473DDBED13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="4964237"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C996933D-EFDE-46E2-BD1F-D0C37523E48C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5276156"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148E0438-F18F-42B0-8767-476982E398D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="5485515"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357AE718-4543-4EB8-90F5-CCC284BB1104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5783406"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254816</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4723E5-D265-4B77-BDD6-7877450D9782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99580" y="6100657"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100446</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>255682</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761826F3-EBAD-4591-B21D-974DF0BABC9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100446" y="6368222"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B0C1E2-794A-4CFE-8801-1FBCB0C380B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3033712"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AEB13F-C119-47BA-AB97-FB8CEA783132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3355419"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D8E14E-1B7B-4303-B2F4-C0E492E72655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4047173"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80858717-8CFE-45AE-8924-CA8DB3974E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4253865"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381455</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>195944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87ECA199-A13A-4823-8AC5-EC9118A32A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379119" y="5492591"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>172131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE71396-A91B-46BF-925D-0069EA9608C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="5788818"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58168F78-064D-4198-9A99-293FA635141D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="6356033"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>227603</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382839</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B182E183-3660-4427-A3A2-91EB82084ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4380503" y="6558158"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EDD88A-FA06-4750-9C9C-3D9F28EB7606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7207806"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F97ACC-C0DD-457A-9B59-A49C6C96E727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7384732"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED16E29-C489-4C59-9560-BA30F4EAAF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8340479"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1749F2C4-FA18-48D3-A100-3531952E73A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8533078"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>221657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109B01CA-4857-4DFF-9085-6B9D28D1EE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3089468"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>94409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249645</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>253317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4D899B-66D6-494F-9546-82DD200E814E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94409" y="3448788"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335388</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>281727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95A59B5-226F-4B8D-8BF7-AAD4A8EE86B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46955" y="3030025"/>
+          <a:ext cx="288433" cy="261602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192647</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>279848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>206062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C26592C-C289-4879-B72A-505ADD28A107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345547" y="3289748"/>
+          <a:ext cx="288433" cy="253874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -27038,7 +28687,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="B35" sqref="B35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28045,8 +29694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162C15F8-E9B1-4E7D-8FBC-900D98E25D36}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:N19"/>
+    <sheetView topLeftCell="A13" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28892,6 +30541,3028 @@
       <c r="A50" s="25"/>
       <c r="B50" s="16" t="s">
         <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="17"/>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="N53" s="26"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="E55" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="E56" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="N56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+  </mergeCells>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E0E90C-24F5-43F8-9D78-C712A3D7F5C0}">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="C7" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="90"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+    </row>
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+    </row>
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+    </row>
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="88"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+    </row>
+    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="74"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="I33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="26"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="61"/>
+      <c r="H41" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="60"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="62">
+        <v>1.75</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="57">
+        <v>8.75</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="25"/>
+      <c r="N44" s="26"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="50"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="17"/>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="N53" s="26"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="E55" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="E56" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="N56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="F9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9189C1-FBC0-41AB-9794-6C6343675522}">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="C7" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="90"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+    </row>
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+    </row>
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+    </row>
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="88"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+    </row>
+    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="74"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="I33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="26"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="61"/>
+      <c r="H41" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="60"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="62">
+        <v>1.75</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="57">
+        <v>8.75</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="25"/>
+      <c r="N44" s="26"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="50"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="17"/>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="N53" s="26"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="E55" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="E56" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="N56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+  </mergeCells>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B6CD2-5F39-4702-918B-110F0A1C3AE9}">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="C7" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="90"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+    </row>
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+    </row>
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+    </row>
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="88"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+    </row>
+    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="74"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="I33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="26"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="61"/>
+      <c r="H41" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="60"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="57">
+        <v>8.75</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="25"/>
+      <c r="N44" s="26"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="16"/>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="50"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="C50" t="s">
         <v>79</v>
@@ -29047,12 +33718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E0E90C-24F5-43F8-9D78-C712A3D7F5C0}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE1D0D2-710D-4467-9B3B-0AEC16937E76}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:N17"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29318,7 +33989,7 @@
       <c r="G17" s="76"/>
       <c r="H17" s="27"/>
       <c r="I17" s="72" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
@@ -29614,7 +34285,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="49" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -29637,7 +34308,7 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="64" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -29784,9 +34455,7 @@
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="56"/>
-      <c r="D43" s="44" t="s">
-        <v>94</v>
-      </c>
+      <c r="D43" s="44"/>
       <c r="E43" s="41"/>
       <c r="F43" s="42"/>
       <c r="G43" s="43"/>
@@ -29807,7 +34476,7 @@
       <c r="B44" s="54"/>
       <c r="C44" s="56"/>
       <c r="D44" s="62">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="E44" s="63"/>
       <c r="F44" s="57">
@@ -29885,9 +34554,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
-      <c r="B49" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="B49" s="16"/>
       <c r="C49" t="s">
         <v>77</v>
       </c>
@@ -29900,7 +34567,9 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="C50" t="s">
         <v>79</v>
       </c>
@@ -29978,56 +34647,10 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="B19:G19"/>
@@ -30044,10 +34667,56 @@
     <mergeCell ref="I17:N17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -30055,12 +34724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9189C1-FBC0-41AB-9794-6C6343675522}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54E98F5-8E6E-4ACD-840E-A22816F7A548}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView topLeftCell="A28" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30207,7 +34876,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="18"/>
@@ -30326,7 +34995,7 @@
       <c r="G17" s="76"/>
       <c r="H17" s="27"/>
       <c r="I17" s="72" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
@@ -30622,7 +35291,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -30645,7 +35314,7 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="64" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -30772,7 +35441,9 @@
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="56"/>
-      <c r="D42" s="96"/>
+      <c r="D42" s="96">
+        <v>2</v>
+      </c>
       <c r="E42" s="98"/>
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
@@ -30792,7 +35463,9 @@
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="56"/>
-      <c r="D43" s="99"/>
+      <c r="D43" s="99">
+        <v>1</v>
+      </c>
       <c r="E43" s="100"/>
       <c r="F43" s="101"/>
       <c r="G43" s="102"/>
@@ -30813,11 +35486,11 @@
       <c r="B44" s="54"/>
       <c r="C44" s="56"/>
       <c r="D44" s="62">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="E44" s="63"/>
       <c r="F44" s="57">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="G44" s="57"/>
       <c r="H44" s="25"/>
@@ -30891,9 +35564,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
-      <c r="B49" s="16" t="s">
-        <v>146</v>
-      </c>
+      <c r="B49" s="16"/>
       <c r="C49" t="s">
         <v>77</v>
       </c>
@@ -30906,7 +35577,9 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="C50" t="s">
         <v>79</v>
       </c>
@@ -31051,2018 +35724,6 @@
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-  </mergeCells>
-  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B6CD2-5F39-4702-918B-110F0A1C3AE9}">
-  <dimension ref="A1:N57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="C7" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="67"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
-    </row>
-    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="73"/>
-    </row>
-    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="30"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="73"/>
-    </row>
-    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="86"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
-    </row>
-    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
-    </row>
-    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="73"/>
-    </row>
-    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="73"/>
-    </row>
-    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="30"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="73"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="73"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="25"/>
-      <c r="N30" s="26"/>
-    </row>
-    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="I33" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="26"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="N34" s="26"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="26"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="21"/>
-    </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="67"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="25"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-      <c r="N39" s="26"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="69"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="60"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="60"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="60"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="57">
-        <v>8.75</v>
-      </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="25"/>
-      <c r="N44" s="26"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="25"/>
-      <c r="N45" s="26"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="26"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="21"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="15"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="16"/>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="50"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="50"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="17"/>
-      <c r="C51" t="s">
-        <v>80</v>
-      </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="50"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="N52" s="26"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="N53" s="26"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="N54" s="26"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="E55" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="N55" s="26"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="E56" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="N56" s="26"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-  </mergeCells>
-  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE1D0D2-710D-4467-9B3B-0AEC16937E76}">
-  <dimension ref="A1:N57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:N17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="C7" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="67"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
-    </row>
-    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="73"/>
-    </row>
-    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="30"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="73"/>
-    </row>
-    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="86"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
-    </row>
-    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
-    </row>
-    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="73"/>
-    </row>
-    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="73"/>
-    </row>
-    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="30"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="73"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="73"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="25"/>
-      <c r="N30" s="26"/>
-    </row>
-    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="I33" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="26"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="N34" s="26"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="26"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="21"/>
-    </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="67"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="25"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-      <c r="N39" s="26"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="69"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="60"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="60"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="60"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="57">
-        <v>8.75</v>
-      </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="25"/>
-      <c r="N44" s="26"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="25"/>
-      <c r="N45" s="26"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="26"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="21"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="15"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="16"/>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="50"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="50"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="17"/>
-      <c r="C51" t="s">
-        <v>80</v>
-      </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="50"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="N52" s="26"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="N53" s="26"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="N54" s="26"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="E55" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="N55" s="26"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="E56" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="N56" s="26"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="I46:M46"/>
     <mergeCell ref="I49:N49"/>
     <mergeCell ref="I50:N50"/>
     <mergeCell ref="I51:N51"/>
@@ -40152,7 +42813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B03307-FD6F-4345-94BB-955470DE1EF6}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="B35" sqref="B35:E35"/>
     </sheetView>
   </sheetViews>
